--- a/ООП ПР/PR_1/Задание2.xlsx
+++ b/ООП ПР/PR_1/Задание2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28119"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Василий\Desktop\Homeworks_course2\ООП ПР\PR_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B25BF0-E231-4D61-BA13-4F45AD64D0FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D299B626-D638-42D6-B4CF-E087EEAE0BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Тесты" sheetId="1" r:id="rId1"/>
@@ -150,12 +150,6 @@
     <t>x, y - внутри границы</t>
   </si>
   <si>
-    <t>Проверка 1 усл</t>
-  </si>
-  <si>
-    <t>Проверка 2 усл</t>
-  </si>
-  <si>
     <t>Проверка ввода</t>
   </si>
   <si>
@@ -169,13 +163,19 @@
   </si>
   <si>
     <t>while                                  0</t>
+  </si>
+  <si>
+    <t>1 усл - false</t>
+  </si>
+  <si>
+    <t>2 усл - false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +194,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -593,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -602,7 +609,7 @@
         <v>4</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -610,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -920,7 +927,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -962,7 +969,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -999,7 +1006,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1036,7 +1043,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H7" t="s">
         <v>4</v>
@@ -1050,7 +1057,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
         <v>4</v>
@@ -1061,7 +1068,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -1085,6 +1092,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>